--- a/biology/Zoologie/Cyanoloxia_rothschildii/Cyanoloxia_rothschildii.xlsx
+++ b/biology/Zoologie/Cyanoloxia_rothschildii/Cyanoloxia_rothschildii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanoloxia rothschildii est une espèce d'oiseaux de la famille des Cardinalidae. Elle est endémique d'Amérique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cyanoloxia rothschildii a été initialement décrite en 1890 par Edward Bartlett sous le protonyme de Guiraca rothschildii[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cyanoloxia rothschildii a été initialement décrite en 1890 par Edward Bartlett sous le protonyme de Guiraca rothschildii.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, rothschildii, lui a été donné en l'honneur de Walter Rothschild (1868-1937), politicien et zoologiste britannique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, rothschildii, lui a été donné en l'honneur de Walter Rothschild (1868-1937), politicien et zoologiste britannique.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Edward Bartlett, « XVIII.—On a new species of Guiraca », Annals and Magazine of Natural History, Londres, Taylor &amp; Francis, vol. 6, no 32,‎ 1890, p. 168-169 (ISSN 0374-5481, OCLC 1481361, DOI 10.1080/00222939008694016, lire en ligne)</t>
         </is>
